--- a/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.5871342058173952</v>
+        <v>1.587134211651001</v>
       </c>
       <c r="C2">
-        <v>10.099019542939166</v>
+        <v>10.099019542815084</v>
       </c>
       <c r="D2">
-        <v>15.469123512603463</v>
+        <v>15.469123485334022</v>
       </c>
       <c r="E2">
-        <v>27.518596864369353</v>
+        <v>27.518596848413416</v>
       </c>
       <c r="F2">
-        <v>11.243726611309089</v>
+        <v>11.243726573532543</v>
       </c>
       <c r="G2">
-        <v>1.9905143456768484</v>
+        <v>1.9905143395015896</v>
       </c>
       <c r="H2">
-        <v>7.7835923944157965</v>
+        <v>7.7835923800518181</v>
       </c>
       <c r="I2">
-        <v>15.531712382615845</v>
+        <v>15.531712380081261</v>
       </c>
       <c r="J2">
-        <v>16.54003499553869</v>
+        <v>16.540034978379897</v>
       </c>
       <c r="K2">
-        <v>5.2150145574322497</v>
+        <v>5.215014534316623</v>
       </c>
       <c r="L2">
-        <v>4.6990611203327095</v>
+        <v>4.6990611213532452</v>
       </c>
       <c r="M2">
-        <v>-9.3118289240424623</v>
+        <v>-9.3118289213076366</v>
       </c>
       <c r="N2">
-        <v>16.996842843368533</v>
+        <v>16.996842841895283</v>
       </c>
       <c r="O2">
-        <v>12.999757651923263</v>
+        <v>12.999757612047075</v>
       </c>
       <c r="P2">
-        <v>20.266085546676194</v>
+        <v>20.266085547170189</v>
       </c>
       <c r="Q2">
-        <v>-1.6889781605484075</v>
+        <v>-1.6889781701018711</v>
       </c>
       <c r="R2">
-        <v>-9.0935682355305492</v>
+        <v>-9.093568270444603</v>
       </c>
       <c r="S2">
-        <v>28.354811846465445</v>
+        <v>28.354811864353124</v>
       </c>
       <c r="T2">
-        <v>32.426895170538558</v>
+        <v>32.426895197536517</v>
       </c>
       <c r="U2">
-        <v>-2.8103304992238427</v>
+        <v>-2.8103305329105921</v>
       </c>
       <c r="V2">
-        <v>6.7358184131477223</v>
+        <v>6.73581837782955</v>
       </c>
       <c r="W2">
-        <v>-16.536497785793951</v>
+        <v>-16.536497801476614</v>
       </c>
       <c r="X2">
-        <v>-1.1655795166520611</v>
+        <v>-1.1655795207599673</v>
       </c>
       <c r="Y2">
-        <v>26.789368538276559</v>
+        <v>26.789368504697297</v>
       </c>
       <c r="Z2">
-        <v>15.811551230661369</v>
+        <v>15.811551191669501</v>
       </c>
       <c r="AA2">
-        <v>17.659134704099078</v>
+        <v>17.659134675585587</v>
       </c>
       <c r="AB2">
-        <v>11.458319889004684</v>
+        <v>11.458319846319629</v>
       </c>
       <c r="AC2">
-        <v>-2.3478106631665416</v>
+        <v>-2.3478106857839123</v>
       </c>
       <c r="AD2">
-        <v>25.316830870958874</v>
+        <v>25.316830816010814</v>
       </c>
       <c r="AE2">
-        <v>8.0726269507869439</v>
+        <v>8.0726269205769672</v>
       </c>
       <c r="AF2">
-        <v>15.58705286022991</v>
+        <v>15.587052833551626</v>
       </c>
       <c r="AG2">
-        <v>17.060115681587209</v>
+        <v>17.060115649181064</v>
       </c>
       <c r="AH2">
-        <v>19.51160673146763</v>
+        <v>19.511606702152196</v>
       </c>
       <c r="AI2">
-        <v>17.659560915965187</v>
+        <v>17.659560873979164</v>
       </c>
       <c r="AJ2">
-        <v>14.832124851535571</v>
+        <v>14.832124834100705</v>
       </c>
       <c r="AK2">
-        <v>17.379127567235528</v>
+        <v>17.379127541907529</v>
       </c>
       <c r="AL2">
-        <v>-6.4624950205834626</v>
+        <v>-6.4624950383514888</v>
       </c>
       <c r="AM2">
-        <v>15.195459175444888</v>
+        <v>15.195459151301188</v>
       </c>
       <c r="AN2">
-        <v>21.305574441695498</v>
+        <v>21.305574392064706</v>
       </c>
       <c r="AO2">
-        <v>31.41810487046471</v>
+        <v>31.418104850710666</v>
       </c>
       <c r="AP2">
-        <v>22.002702576264735</v>
+        <v>22.002702533529717</v>
       </c>
       <c r="AQ2">
-        <v>-9.4901985346212374</v>
+        <v>-9.4901985549390577</v>
       </c>
       <c r="AR2">
-        <v>29.637552077299677</v>
+        <v>29.637552079811886</v>
       </c>
       <c r="AS2">
-        <v>25.755116483154755</v>
+        <v>25.755116441191824</v>
       </c>
       <c r="AT2">
-        <v>9.1233375853228154</v>
+        <v>9.1233375571634028</v>
       </c>
       <c r="AU2">
-        <v>20.704916459279929</v>
+        <v>20.704916400022675</v>
       </c>
       <c r="AV2">
-        <v>-1.2070660821917185</v>
+        <v>-1.2070661324515988</v>
       </c>
       <c r="AW2">
-        <v>4.7259696788095784</v>
+        <v>4.7259696452531479</v>
       </c>
       <c r="AX2">
-        <v>21.130951363386583</v>
+        <v>21.130951319661321</v>
       </c>
       <c r="AY2">
-        <v>31.778143396573526</v>
+        <v>31.778143360802275</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5.8062355093776912</v>
+        <v>5.8062354935840093</v>
       </c>
       <c r="C3">
-        <v>4.387110718465161</v>
+        <v>4.3871106848315717</v>
       </c>
       <c r="D3">
-        <v>23.640090825491406</v>
+        <v>23.640090763244199</v>
       </c>
       <c r="E3">
-        <v>20.950149991959009</v>
+        <v>20.950149961354949</v>
       </c>
       <c r="F3">
-        <v>8.5490411904020576</v>
+        <v>8.5490411567230282</v>
       </c>
       <c r="G3">
-        <v>17.640012765607082</v>
+        <v>17.640012748864358</v>
       </c>
       <c r="H3">
-        <v>-8.3215212636559794</v>
+        <v>-8.3215212800335241</v>
       </c>
       <c r="I3">
-        <v>4.3408246326900883</v>
+        <v>4.3408246186657529</v>
       </c>
       <c r="J3">
-        <v>18.657082095178669</v>
+        <v>18.657082087029153</v>
       </c>
       <c r="K3">
-        <v>46.581123550525035</v>
+        <v>46.581123551992334</v>
       </c>
       <c r="L3">
-        <v>24.326721484949292</v>
+        <v>24.326721465384548</v>
       </c>
       <c r="M3">
-        <v>-0.10443577400074473</v>
+        <v>-0.10484547991327134</v>
       </c>
       <c r="N3">
-        <v>10.45715609572529</v>
+        <v>10.457156071013809</v>
       </c>
       <c r="O3">
-        <v>-22.288543325460104</v>
+        <v>-22.288543363268605</v>
       </c>
       <c r="P3">
-        <v>17.028958417822459</v>
+        <v>17.028958364550355</v>
       </c>
       <c r="Q3">
-        <v>7.7767477463289199</v>
+        <v>7.7767477317803468</v>
       </c>
       <c r="R3">
-        <v>-3.9144188381563962</v>
+        <v>-3.9144188612369137</v>
       </c>
       <c r="S3">
-        <v>22.889281269989333</v>
+        <v>22.889281259969881</v>
       </c>
       <c r="T3">
-        <v>29.94957830489053</v>
+        <v>29.949578275136236</v>
       </c>
       <c r="U3">
-        <v>12.139696150065769</v>
+        <v>12.139696127750021</v>
       </c>
       <c r="V3">
-        <v>17.491490233927948</v>
+        <v>17.491490215114418</v>
       </c>
       <c r="W3">
-        <v>-3.4353163125356536</v>
+        <v>-3.4353163337223602</v>
       </c>
       <c r="X3">
-        <v>-6.5990086583336547</v>
+        <v>-6.5990086775934822</v>
       </c>
       <c r="Y3">
-        <v>31.429009819303083</v>
+        <v>31.429009777671279</v>
       </c>
       <c r="Z3">
-        <v>17.880041212493726</v>
+        <v>17.880041171972593</v>
       </c>
       <c r="AA3">
-        <v>18.163082290636858</v>
+        <v>18.163082258515235</v>
       </c>
       <c r="AB3">
-        <v>15.756518411553817</v>
+        <v>15.756518369156073</v>
       </c>
       <c r="AC3">
-        <v>29.640600377298082</v>
+        <v>29.640600351833729</v>
       </c>
       <c r="AD3">
-        <v>26.024148297693849</v>
+        <v>26.024148264986955</v>
       </c>
       <c r="AE3">
-        <v>21.716855141631118</v>
+        <v>21.716855124045445</v>
       </c>
       <c r="AF3">
-        <v>14.465501574221193</v>
+        <v>14.465501543595968</v>
       </c>
       <c r="AG3">
-        <v>6.415141263032444</v>
+        <v>6.4151412399515984</v>
       </c>
       <c r="AH3">
-        <v>2.0874254523350042</v>
+        <v>2.0874254311446108</v>
       </c>
       <c r="AI3">
-        <v>56.358033455987446</v>
+        <v>56.358033416889263</v>
       </c>
       <c r="AJ3">
-        <v>30.599349686427786</v>
+        <v>30.599349667484027</v>
       </c>
       <c r="AK3">
-        <v>18.168669040607167</v>
+        <v>18.168668999943797</v>
       </c>
       <c r="AL3">
-        <v>10.905428825174349</v>
+        <v>10.905428784293104</v>
       </c>
       <c r="AM3">
-        <v>10.067551435731792</v>
+        <v>10.067551391207463</v>
       </c>
       <c r="AN3">
-        <v>-17.655766676704715</v>
+        <v>-17.655766694724452</v>
       </c>
       <c r="AO3">
-        <v>25.723190451757223</v>
+        <v>25.723190373029624</v>
       </c>
       <c r="AP3">
-        <v>2.0177694011164271</v>
+        <v>2.017769370248546</v>
       </c>
       <c r="AQ3">
-        <v>16.388879695489109</v>
+        <v>16.388879644863533</v>
       </c>
       <c r="AR3">
-        <v>40.688249232849714</v>
+        <v>40.688249228417547</v>
       </c>
       <c r="AS3">
-        <v>23.406052919728104</v>
+        <v>23.406052891286571</v>
       </c>
       <c r="AT3">
-        <v>14.451752773537754</v>
+        <v>14.451752724676684</v>
       </c>
       <c r="AU3">
-        <v>11.628502064344303</v>
+        <v>11.628502062400694</v>
       </c>
       <c r="AV3">
-        <v>1.2218754506474825</v>
+        <v>1.2218754124614435</v>
       </c>
       <c r="AW3">
-        <v>-0.85981543628070189</v>
+        <v>-0.85981546628452732</v>
       </c>
       <c r="AX3">
-        <v>12.952997456781706</v>
+        <v>12.952997425583728</v>
       </c>
       <c r="AY3">
-        <v>36.381986772717873</v>
+        <v>36.381986716235367</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_common_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>1.587134211651001</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>10.099019542815084</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>15.469123485334022</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>27.518596848413416</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>11.243726573532543</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1.9905143395015896</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>7.7835923800518181</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>15.531712380081261</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>16.540034978379897</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>5.215014534316623</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>4.6990611213532452</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>-9.3118289213076366</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>16.996842841895283</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>12.999757612047075</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>20.266085547170189</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>-1.6889781701018711</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-9.093568270444603</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>28.354811864353124</v>
+        <v>19.259065084577472</v>
       </c>
       <c r="T2">
         <v>32.426895197536517</v>
@@ -588,55 +477,55 @@
         <v>15.811551191669501</v>
       </c>
       <c r="AA2">
-        <v>17.659134675585587</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>11.458319846319629</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>-2.3478106857839123</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>25.316830816010814</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>8.0726269205769672</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>15.587052833551626</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>17.060115649181064</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>19.511606702152196</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>17.659560873979164</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>14.832124834100705</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>17.379127541907529</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>-6.4624950383514888</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>15.195459151301188</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>21.305574392064706</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>31.418104850710666</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>22.002702533529717</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>-9.4901985549390577</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>29.637552079811886</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>5.8062354935840093</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>4.3871106848315717</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>23.640090763244199</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>20.950149961354949</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>8.5490411567230282</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>17.640012748864358</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>-8.3215212800335241</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>4.3408246186657529</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>18.657082087029153</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>46.581123551992334</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>24.326721465384548</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>-0.10484547991327134</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>10.457156071013809</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>-22.288543363268605</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>17.028958364550355</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>7.7767477317803468</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>-3.9144188612369137</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>22.889281259969881</v>
@@ -743,55 +629,55 @@
         <v>17.880041171972593</v>
       </c>
       <c r="AA3">
-        <v>18.163082258515235</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>15.756518369156073</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>29.640600351833729</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>26.024148264986955</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>21.716855124045445</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>14.465501543595968</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>6.4151412399515984</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>2.0874254311446108</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>56.358033416889263</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>30.599349667484027</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>18.168668999943797</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>10.905428784293104</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>10.067551391207463</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>-17.655766694724452</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>25.723190373029624</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.017769370248546</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>16.388879644863533</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>40.688249228417547</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,17 +512,11 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1.5871342058173952</v>
-      </c>
       <c r="C2">
-        <v>5.6356397665015292</v>
-      </c>
-      <c r="D2">
-        <v>15.469123512603463</v>
+        <v>-9.093568270444603</v>
       </c>
       <c r="E2">
-        <v>27.518596864369353</v>
+        <v>-9.4901985549390577</v>
       </c>
       <c r="F2">
         <v>11.243726611309089</v>
@@ -673,16 +662,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5.8062355093776912</v>
+        <v>-12.183051192106124</v>
       </c>
       <c r="C3">
-        <v>4.387110718465161</v>
+        <v>-3.9144188612369137</v>
       </c>
       <c r="D3">
-        <v>23.640090825491406</v>
+        <v>-16.548441345687586</v>
       </c>
       <c r="E3">
-        <v>20.950149991959009</v>
+        <v>19.710913143782037</v>
       </c>
       <c r="F3">
         <v>8.5490411904020576</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_common_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.5871342058173952</v>
-      </c>
-      <c r="C2">
-        <v>5.6356397665015292</v>
+        <v>14.718302893770216</v>
       </c>
       <c r="D2">
-        <v>15.469123512603463</v>
-      </c>
-      <c r="E2">
-        <v>27.518596864369353</v>
+        <v>15.195459151301188</v>
       </c>
       <c r="F2">
         <v>11.243726611309089</v>
@@ -664,16 +653,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5.8062355093776912</v>
+        <v>10.457156071013809</v>
       </c>
       <c r="C3">
-        <v>4.387110718465161</v>
+        <v>-12.183051192106124</v>
       </c>
       <c r="D3">
-        <v>23.640090825491406</v>
+        <v>10.067551391207463</v>
       </c>
       <c r="E3">
-        <v>33.785252979054192</v>
+        <v>-16.548441345687586</v>
       </c>
       <c r="F3">
         <v>8.5490411904020576</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_common_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,139 +513,145 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>1.587134211651001</v>
+      </c>
+      <c r="C2">
+        <v>5.6356397555935436</v>
+      </c>
+      <c r="D2">
+        <v>15.469123485334022</v>
+      </c>
+      <c r="E2">
+        <v>27.518596848413416</v>
+      </c>
+      <c r="F2">
+        <v>11.243726573532543</v>
+      </c>
+      <c r="G2">
+        <v>6.7131385802244798</v>
+      </c>
+      <c r="H2">
+        <v>7.7835923800518181</v>
+      </c>
+      <c r="I2">
+        <v>21.774816834213485</v>
+      </c>
+      <c r="J2">
+        <v>16.540034978379897</v>
+      </c>
+      <c r="K2">
+        <v>5.215014534316623</v>
+      </c>
+      <c r="L2">
+        <v>3.6002510110575034</v>
+      </c>
+      <c r="M2">
+        <v>-0.15503500730959338</v>
+      </c>
+      <c r="N2">
         <v>14.718302893770216</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>22.105267039901431</v>
+      </c>
+      <c r="Q2">
+        <v>-1.6889781701018711</v>
+      </c>
+      <c r="R2">
+        <v>-9.093568270444603</v>
+      </c>
+      <c r="T2">
+        <v>25.956823751292603</v>
+      </c>
+      <c r="U2">
+        <v>-2.8103305329105921</v>
+      </c>
+      <c r="V2">
+        <v>12.162200089982525</v>
+      </c>
+      <c r="W2">
+        <v>-16.536497801476614</v>
+      </c>
+      <c r="X2">
+        <v>-1.1655795207599673</v>
+      </c>
+      <c r="Y2">
+        <v>26.789368504697297</v>
+      </c>
+      <c r="Z2">
+        <v>15.811551191669501</v>
+      </c>
+      <c r="AA2">
+        <v>17.659134675585587</v>
+      </c>
+      <c r="AB2">
+        <v>11.458319846319629</v>
+      </c>
+      <c r="AC2">
+        <v>-2.3478106857839123</v>
+      </c>
+      <c r="AD2">
+        <v>25.316830816010814</v>
+      </c>
+      <c r="AE2">
+        <v>8.0726269205769672</v>
+      </c>
+      <c r="AF2">
+        <v>15.587052833551626</v>
+      </c>
+      <c r="AG2">
+        <v>17.060115649181064</v>
+      </c>
+      <c r="AH2">
+        <v>19.511606702152196</v>
+      </c>
+      <c r="AI2">
+        <v>17.659560873979164</v>
+      </c>
+      <c r="AJ2">
+        <v>14.832124834100705</v>
+      </c>
+      <c r="AK2">
+        <v>17.379127541907529</v>
+      </c>
+      <c r="AL2">
+        <v>-6.4624950383514888</v>
+      </c>
+      <c r="AM2">
         <v>15.195459151301188</v>
       </c>
-      <c r="F2">
-        <v>11.243726611309089</v>
-      </c>
-      <c r="G2">
-        <v>6.7131385773781265</v>
-      </c>
-      <c r="H2">
-        <v>7.7835923944157965</v>
-      </c>
-      <c r="I2">
-        <v>21.774816859493122</v>
-      </c>
-      <c r="J2">
-        <v>16.54003499553869</v>
-      </c>
-      <c r="K2">
-        <v>5.2150145574322497</v>
-      </c>
-      <c r="L2">
-        <v>3.6002510298242529</v>
-      </c>
-      <c r="M2">
-        <v>-0.15503501815394899</v>
-      </c>
-      <c r="N2">
-        <v>14.718302905974012</v>
-      </c>
-      <c r="P2">
-        <v>22.105267035705072</v>
-      </c>
-      <c r="Q2">
-        <v>-1.6889781605484075</v>
-      </c>
-      <c r="R2">
-        <v>-9.0935682355305492</v>
-      </c>
-      <c r="T2">
-        <v>25.95682375422161</v>
-      </c>
-      <c r="U2">
-        <v>-2.8103304992238427</v>
-      </c>
-      <c r="V2">
-        <v>12.162200151560713</v>
-      </c>
-      <c r="W2">
-        <v>-16.536497785793951</v>
-      </c>
-      <c r="X2">
-        <v>-1.1655795166520611</v>
-      </c>
-      <c r="Y2">
-        <v>26.789368538276559</v>
-      </c>
-      <c r="Z2">
-        <v>15.811551230661369</v>
-      </c>
-      <c r="AA2">
-        <v>17.659134704099078</v>
-      </c>
-      <c r="AB2">
-        <v>11.458319889004684</v>
-      </c>
-      <c r="AC2">
-        <v>-2.3478106631665416</v>
-      </c>
-      <c r="AD2">
-        <v>25.316830870958874</v>
-      </c>
-      <c r="AE2">
-        <v>8.0726269507869439</v>
-      </c>
-      <c r="AF2">
-        <v>15.58705286022991</v>
-      </c>
-      <c r="AG2">
-        <v>17.060115681587209</v>
-      </c>
-      <c r="AH2">
-        <v>19.51160673146763</v>
-      </c>
-      <c r="AI2">
-        <v>17.659560915965187</v>
-      </c>
-      <c r="AJ2">
-        <v>14.832124851535571</v>
-      </c>
-      <c r="AK2">
-        <v>17.379127567235528</v>
-      </c>
-      <c r="AL2">
-        <v>-6.4624950205834626</v>
-      </c>
-      <c r="AM2">
-        <v>15.195459175444888</v>
-      </c>
       <c r="AO2">
-        <v>31.41810487046471</v>
+        <v>31.418104850710666</v>
       </c>
       <c r="AP2">
-        <v>25.876732800013695</v>
+        <v>25.876732763545867</v>
       </c>
       <c r="AQ2">
-        <v>-9.4901985346212374</v>
+        <v>-9.4901985549390577</v>
       </c>
       <c r="AR2">
-        <v>29.637552077299677</v>
+        <v>29.637552079811886</v>
       </c>
       <c r="AS2">
-        <v>25.755116483154755</v>
+        <v>25.755116441191824</v>
       </c>
       <c r="AT2">
-        <v>9.1233375853228154</v>
+        <v>9.1233375571634028</v>
       </c>
       <c r="AU2">
-        <v>9.6154002615978467</v>
+        <v>9.6154002170849413</v>
       </c>
       <c r="AV2">
-        <v>-1.2070660821917185</v>
+        <v>-1.2070661324515988</v>
       </c>
       <c r="AW2">
-        <v>4.7259696788095784</v>
+        <v>4.7259696452531479</v>
       </c>
       <c r="AX2">
-        <v>21.130951363386583</v>
+        <v>21.130951319661321</v>
       </c>
       <c r="AY2">
-        <v>31.778143396573526</v>
+        <v>31.778143360802275</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -653,154 +659,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>5.8062354935840093</v>
+      </c>
+      <c r="C3">
+        <v>4.3871106848315717</v>
+      </c>
+      <c r="D3">
+        <v>23.640090763244199</v>
+      </c>
+      <c r="E3">
+        <v>33.785252943288427</v>
+      </c>
+      <c r="F3">
+        <v>8.5490411567230282</v>
+      </c>
+      <c r="G3">
+        <v>17.640012748864358</v>
+      </c>
+      <c r="H3">
+        <v>-8.3215212800335241</v>
+      </c>
+      <c r="I3">
+        <v>4.3408246186657529</v>
+      </c>
+      <c r="J3">
+        <v>18.657082087029153</v>
+      </c>
+      <c r="K3">
+        <v>36.306742797752435</v>
+      </c>
+      <c r="L3">
+        <v>24.326721465384548</v>
+      </c>
+      <c r="M3">
+        <v>-7.0508612631048999</v>
+      </c>
+      <c r="N3">
         <v>10.457156071013809</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>-12.183051192106124</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>17.028958364550355</v>
+      </c>
+      <c r="Q3">
+        <v>7.7767477317803468</v>
+      </c>
+      <c r="R3">
+        <v>-3.9144188612369137</v>
+      </c>
+      <c r="S3">
+        <v>22.889281259969881</v>
+      </c>
+      <c r="T3">
+        <v>29.949578275136236</v>
+      </c>
+      <c r="U3">
+        <v>12.139696127750021</v>
+      </c>
+      <c r="V3">
+        <v>20.331122198846202</v>
+      </c>
+      <c r="W3">
+        <v>-3.4353163337223602</v>
+      </c>
+      <c r="X3">
+        <v>-6.5990086775934822</v>
+      </c>
+      <c r="Y3">
+        <v>31.429009777671279</v>
+      </c>
+      <c r="Z3">
+        <v>17.880041171972593</v>
+      </c>
+      <c r="AA3">
+        <v>18.163082258515235</v>
+      </c>
+      <c r="AB3">
+        <v>15.756518369156073</v>
+      </c>
+      <c r="AC3">
+        <v>29.640600351833729</v>
+      </c>
+      <c r="AD3">
+        <v>26.024148264986955</v>
+      </c>
+      <c r="AE3">
+        <v>21.716855124045445</v>
+      </c>
+      <c r="AF3">
+        <v>14.465501543595968</v>
+      </c>
+      <c r="AG3">
+        <v>6.4151412399515984</v>
+      </c>
+      <c r="AH3">
+        <v>2.0874254311446108</v>
+      </c>
+      <c r="AI3">
+        <v>17.349660943537192</v>
+      </c>
+      <c r="AJ3">
+        <v>30.599349667484027</v>
+      </c>
+      <c r="AK3">
+        <v>18.168668999943797</v>
+      </c>
+      <c r="AL3">
+        <v>10.905428784293104</v>
+      </c>
+      <c r="AM3">
         <v>10.067551391207463</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>-16.548441345687586</v>
       </c>
-      <c r="F3">
-        <v>8.5490411904020576</v>
-      </c>
-      <c r="G3">
-        <v>17.640012765607082</v>
-      </c>
-      <c r="H3">
-        <v>-8.3215212636559794</v>
-      </c>
-      <c r="I3">
-        <v>4.3408246326900883</v>
-      </c>
-      <c r="J3">
-        <v>18.657082095178669</v>
-      </c>
-      <c r="K3">
-        <v>36.306742814633424</v>
-      </c>
-      <c r="L3">
-        <v>24.326721484949292</v>
-      </c>
-      <c r="M3">
-        <v>-7.0505567933776394</v>
-      </c>
-      <c r="N3">
-        <v>10.45715609572529</v>
-      </c>
-      <c r="O3">
-        <v>-12.183051112094908</v>
-      </c>
-      <c r="P3">
-        <v>17.028958417822459</v>
-      </c>
-      <c r="Q3">
-        <v>7.7767477463289199</v>
-      </c>
-      <c r="R3">
-        <v>-3.9144188381563962</v>
-      </c>
-      <c r="S3">
-        <v>22.889281269989333</v>
-      </c>
-      <c r="T3">
-        <v>29.94957830489053</v>
-      </c>
-      <c r="U3">
-        <v>12.139696150065769</v>
-      </c>
-      <c r="V3">
-        <v>20.331122204093347</v>
-      </c>
-      <c r="W3">
-        <v>-3.4353163125356536</v>
-      </c>
-      <c r="X3">
-        <v>-6.5990086583336547</v>
-      </c>
-      <c r="Y3">
-        <v>31.429009819303083</v>
-      </c>
-      <c r="Z3">
-        <v>17.880041212493726</v>
-      </c>
-      <c r="AA3">
-        <v>18.163082290636858</v>
-      </c>
-      <c r="AB3">
-        <v>15.756518411553817</v>
-      </c>
-      <c r="AC3">
-        <v>29.640600377298082</v>
-      </c>
-      <c r="AD3">
-        <v>26.024148297693849</v>
-      </c>
-      <c r="AE3">
-        <v>21.716855141631118</v>
-      </c>
-      <c r="AF3">
-        <v>14.465501574221193</v>
-      </c>
-      <c r="AG3">
-        <v>6.415141263032444</v>
-      </c>
-      <c r="AH3">
-        <v>2.0874254523350042</v>
-      </c>
-      <c r="AI3">
-        <v>17.349660990993559</v>
-      </c>
-      <c r="AJ3">
-        <v>30.599349686427786</v>
-      </c>
-      <c r="AK3">
-        <v>18.168669040607167</v>
-      </c>
-      <c r="AL3">
-        <v>10.905428825174349</v>
-      </c>
-      <c r="AM3">
-        <v>10.067551435731792</v>
-      </c>
-      <c r="AN3">
-        <v>-16.548441322176938</v>
-      </c>
       <c r="AO3">
-        <v>25.723190451757223</v>
+        <v>25.723190373029624</v>
       </c>
       <c r="AP3">
-        <v>2.0177694011164271</v>
+        <v>2.017769370248546</v>
       </c>
       <c r="AQ3">
-        <v>19.710913153552884</v>
+        <v>19.710913143782037</v>
       </c>
       <c r="AR3">
-        <v>40.688249232849714</v>
+        <v>40.688249228417547</v>
       </c>
       <c r="AS3">
-        <v>23.406052919728104</v>
+        <v>23.406052891286571</v>
       </c>
       <c r="AT3">
-        <v>14.451752773537754</v>
+        <v>14.451752724676684</v>
       </c>
       <c r="AU3">
-        <v>12.120276984208006</v>
+        <v>12.120277019329428</v>
       </c>
       <c r="AV3">
-        <v>1.2218754506474825</v>
+        <v>1.2218754124614435</v>
       </c>
       <c r="AW3">
-        <v>-0.85981543628070189</v>
+        <v>-0.85981546628452732</v>
       </c>
       <c r="AX3">
-        <v>12.952997456781706</v>
+        <v>12.952997425583728</v>
       </c>
       <c r="AY3">
-        <v>36.381986772717873</v>
+        <v>36.381986716235367</v>
       </c>
     </row>
   </sheetData>
